--- a/router/exportFiles/group_info.xlsx
+++ b/router/exportFiles/group_info.xlsx
@@ -375,42 +375,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>集团号</v>
+        <v>集团编号</v>
       </c>
       <c r="B1" t="str">
-        <v>集团名</v>
+        <v>集团名称</v>
       </c>
       <c r="C1" t="str">
-        <v>启用状态</v>
+        <v>备注</v>
       </c>
       <c r="D1" t="str">
-        <v>备注</v>
+        <v>状态</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>12345678</v>
+      <c r="A2" t="str">
+        <v>10000001</v>
       </c>
       <c r="B2" t="str">
-        <v>Tencent</v>
-      </c>
-      <c r="C2">
+        <v>明光股份有限公司</v>
+      </c>
+      <c r="C2" t="str">
+        <v>财务处</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>10000002</v>
+      </c>
+      <c r="B3" t="str">
+        <v>美琳服饰有限责任公司</v>
+      </c>
+      <c r="C3" t="str">
+        <v>财务处</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>10000003</v>
+      </c>
+      <c r="B4" t="str">
+        <v>齐鲁电力股份有限公司</v>
+      </c>
+      <c r="C4" t="str">
+        <v>财务处</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>10000004</v>
+      </c>
+      <c r="B5" t="str">
+        <v>东吴物业有限责任公司</v>
+      </c>
+      <c r="C5" t="str">
+        <v>财务处</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="D2" t="str">
-        <v>nothing</v>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>10000005</v>
+      </c>
+      <c r="B6" t="str">
+        <v>江苏水力股份有限公司</v>
+      </c>
+      <c r="C6" t="str">
+        <v>财务处</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>10000006</v>
+      </c>
+      <c r="B7" t="str">
+        <v>苏州大学</v>
+      </c>
+      <c r="C7" t="str">
+        <v>教材教务中心</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/router/exportFiles/group_info.xlsx
+++ b/router/exportFiles/group_info.xlsx
@@ -419,7 +419,7 @@
         <v>财务处</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
